--- a/data/trans_orig/P62A$jubilacion-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P62A$jubilacion-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99564F21-79CD-4F3A-A8B4-0D88CDD26122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E4F1140-6213-43C2-ADBA-B61CD7FA0ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E31CE702-A825-4FC3-B1A9-2F19D40C0C2F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5543DB5F-08AA-41C0-8E67-3C5A84CE6EC0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="1079">
-  <si>
-    <t>Población según tipo de pensión que percibe en 2007</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="1103">
+  <si>
+    <t>Población según tipo de pensión que percibe (multirrespuesta) en 2007</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -929,10 +929,109 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según tipo de pensión que percibe en 2012</t>
-  </si>
-  <si>
-    <t>—%</t>
+    <t>Población según tipo de pensión que percibe (multirrespuesta) en 2012</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
   </si>
   <si>
     <t>72,34%</t>
@@ -1136,2146 +1235,2119 @@
     <t>11,97%</t>
   </si>
   <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>Población según tipo de pensión que percibe (multirrespuesta) en 2016</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>Población según tipo de pensión que percibe (multirrespuesta) en 2023</t>
+  </si>
+  <si>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
   </si>
   <si>
     <t>40,87%</t>
   </si>
   <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>Población según tipo de pensión que percibe en 2016</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>Población según tipo de pensión que percibe en 2023</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
   </si>
   <si>
     <t>52,2%</t>
   </si>
   <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
   </si>
   <si>
     <t>15,63%</t>
   </si>
   <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
   </si>
 </sst>
 </file>
@@ -3687,7 +3759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB22A0BE-75D9-400B-A88F-6E066E296462}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE4CD0CE-9E4C-4B32-9C0B-71FE44082629}">
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4999,7 +5071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54AAD67F-CABB-47F4-A598-57AF22D25D6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4205CDB0-64FE-4DBB-962B-A91DA3AF13D9}">
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5090,28 +5162,28 @@
         <v>297</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -5120,31 +5192,31 @@
         <v>18</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>297</v>
+        <v>19</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>297</v>
+        <v>20</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -5153,31 +5225,31 @@
         <v>28</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -5186,31 +5258,31 @@
         <v>36</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>297</v>
+        <v>322</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>297</v>
+        <v>326</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -5221,31 +5293,31 @@
         <v>8</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -5254,31 +5326,31 @@
         <v>18</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -5287,31 +5359,31 @@
         <v>28</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -5320,28 +5392,28 @@
         <v>36</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>328</v>
+        <v>361</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>329</v>
+        <v>362</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>330</v>
+        <v>363</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>256</v>
@@ -5355,31 +5427,31 @@
         <v>8</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>334</v>
+        <v>367</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>335</v>
+        <v>368</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>337</v>
+        <v>370</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>338</v>
+        <v>371</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>339</v>
+        <v>372</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>340</v>
+        <v>373</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -5394,25 +5466,25 @@
         <v>19</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>342</v>
+        <v>375</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>343</v>
+        <v>376</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>344</v>
+        <v>377</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>345</v>
+        <v>378</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>346</v>
+        <v>379</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>347</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -5421,31 +5493,31 @@
         <v>28</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>348</v>
+        <v>381</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>349</v>
+        <v>382</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>351</v>
+        <v>384</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>352</v>
+        <v>385</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>355</v>
+        <v>388</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>356</v>
+        <v>389</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -5454,31 +5526,31 @@
         <v>36</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>357</v>
+        <v>390</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>358</v>
+        <v>391</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>360</v>
+        <v>393</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>132</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>362</v>
+        <v>395</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>363</v>
+        <v>396</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>364</v>
+        <v>397</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -5489,31 +5561,31 @@
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>365</v>
+        <v>398</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>366</v>
+        <v>399</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>367</v>
+        <v>400</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>368</v>
+        <v>401</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>369</v>
+        <v>402</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>370</v>
+        <v>403</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>371</v>
+        <v>404</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>372</v>
+        <v>405</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>373</v>
+        <v>406</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -5528,25 +5600,25 @@
         <v>20</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>374</v>
+        <v>407</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>375</v>
+        <v>408</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>376</v>
+        <v>409</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>377</v>
+        <v>410</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>378</v>
+        <v>411</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>379</v>
+        <v>412</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>380</v>
+        <v>413</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -5555,31 +5627,31 @@
         <v>28</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>381</v>
+        <v>414</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>382</v>
+        <v>415</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>383</v>
+        <v>416</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>384</v>
+        <v>417</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>385</v>
+        <v>418</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>386</v>
+        <v>419</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>387</v>
+        <v>420</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>388</v>
+        <v>38</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>389</v>
+        <v>421</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -5588,31 +5660,31 @@
         <v>36</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>390</v>
+        <v>422</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>391</v>
+        <v>423</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>392</v>
+        <v>424</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>393</v>
+        <v>425</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>328</v>
+        <v>426</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>394</v>
+        <v>59</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>395</v>
+        <v>427</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>396</v>
+        <v>428</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>397</v>
+        <v>429</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -5623,31 +5695,31 @@
         <v>8</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>399</v>
+        <v>431</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>400</v>
+        <v>432</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>401</v>
+        <v>433</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>402</v>
+        <v>434</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>403</v>
+        <v>435</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>404</v>
+        <v>436</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>406</v>
+        <v>438</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -5662,25 +5734,25 @@
         <v>20</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>407</v>
+        <v>439</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>408</v>
+        <v>440</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>409</v>
+        <v>441</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>410</v>
+        <v>442</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>411</v>
+        <v>443</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>412</v>
+        <v>444</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>413</v>
+        <v>445</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -5689,31 +5761,31 @@
         <v>28</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>414</v>
+        <v>446</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>415</v>
+        <v>447</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>416</v>
+        <v>448</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>382</v>
+        <v>449</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>417</v>
+        <v>450</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>418</v>
+        <v>451</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>419</v>
+        <v>452</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>420</v>
+        <v>453</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>421</v>
+        <v>454</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -5722,31 +5794,31 @@
         <v>36</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>422</v>
+        <v>455</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>423</v>
+        <v>456</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>424</v>
+        <v>457</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>425</v>
+        <v>458</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>426</v>
+        <v>459</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>427</v>
+        <v>460</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>428</v>
+        <v>461</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>429</v>
+        <v>462</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>430</v>
+        <v>463</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -5757,31 +5829,31 @@
         <v>8</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>431</v>
+        <v>464</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>432</v>
+        <v>465</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>433</v>
+        <v>466</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>434</v>
+        <v>467</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>435</v>
+        <v>468</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>436</v>
+        <v>469</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>437</v>
+        <v>470</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>438</v>
+        <v>471</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>439</v>
+        <v>472</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -5796,25 +5868,25 @@
         <v>20</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>440</v>
+        <v>473</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>441</v>
+        <v>474</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>442</v>
+        <v>475</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>443</v>
+        <v>476</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>444</v>
+        <v>477</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>445</v>
+        <v>478</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>446</v>
+        <v>479</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -5823,31 +5895,31 @@
         <v>28</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>447</v>
+        <v>480</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>448</v>
+        <v>481</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>449</v>
+        <v>482</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>450</v>
+        <v>483</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>451</v>
+        <v>484</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>452</v>
+        <v>485</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>453</v>
+        <v>486</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>454</v>
+        <v>487</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -5856,31 +5928,31 @@
         <v>36</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>455</v>
+        <v>488</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>456</v>
+        <v>489</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>457</v>
+        <v>490</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>458</v>
+        <v>491</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>459</v>
+        <v>321</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>460</v>
+        <v>492</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>259</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>461</v>
+        <v>493</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -5891,31 +5963,31 @@
         <v>8</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>462</v>
+        <v>494</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>463</v>
+        <v>495</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>464</v>
+        <v>496</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>465</v>
+        <v>497</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>466</v>
+        <v>498</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>467</v>
+        <v>499</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>468</v>
+        <v>500</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>469</v>
+        <v>501</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>470</v>
+        <v>502</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -5930,25 +6002,25 @@
         <v>20</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>471</v>
+        <v>503</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>472</v>
+        <v>504</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>473</v>
+        <v>505</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>474</v>
+        <v>506</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>475</v>
+        <v>507</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>476</v>
+        <v>508</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>477</v>
+        <v>509</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -5957,31 +6029,31 @@
         <v>28</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>478</v>
+        <v>510</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>388</v>
+        <v>511</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>479</v>
+        <v>512</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>480</v>
+        <v>513</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>481</v>
+        <v>514</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>482</v>
+        <v>515</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>483</v>
+        <v>516</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>484</v>
+        <v>517</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>485</v>
+        <v>518</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -5990,31 +6062,31 @@
         <v>36</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>486</v>
+        <v>519</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>487</v>
+        <v>520</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>488</v>
+        <v>521</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>489</v>
+        <v>522</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>136</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>491</v>
+        <v>524</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>492</v>
+        <v>525</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -6025,31 +6097,31 @@
         <v>8</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>493</v>
+        <v>526</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>494</v>
+        <v>527</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>495</v>
+        <v>528</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>496</v>
+        <v>529</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>497</v>
+        <v>530</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>498</v>
+        <v>531</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>499</v>
+        <v>532</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>500</v>
+        <v>533</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>501</v>
+        <v>534</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -6067,22 +6139,22 @@
         <v>257</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>502</v>
+        <v>535</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>503</v>
+        <v>536</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>504</v>
+        <v>537</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>505</v>
+        <v>538</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>506</v>
+        <v>539</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>507</v>
+        <v>540</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -6091,31 +6163,31 @@
         <v>28</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>508</v>
+        <v>541</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>509</v>
+        <v>542</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>278</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>510</v>
+        <v>543</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>511</v>
+        <v>544</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>512</v>
+        <v>545</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>513</v>
+        <v>546</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>514</v>
+        <v>547</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>515</v>
+        <v>548</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -6124,31 +6196,31 @@
         <v>36</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>516</v>
+        <v>549</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>440</v>
+        <v>473</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>517</v>
+        <v>550</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>518</v>
+        <v>551</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>519</v>
+        <v>552</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>520</v>
+        <v>553</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>521</v>
+        <v>554</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>522</v>
+        <v>555</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>523</v>
+        <v>556</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -6159,31 +6231,31 @@
         <v>8</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>524</v>
+        <v>557</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>525</v>
+        <v>558</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>526</v>
+        <v>559</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>527</v>
+        <v>560</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>528</v>
+        <v>561</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>529</v>
+        <v>562</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>530</v>
+        <v>563</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>531</v>
+        <v>564</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>532</v>
+        <v>565</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -6192,31 +6264,31 @@
         <v>18</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>533</v>
+        <v>566</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>534</v>
+        <v>567</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>535</v>
+        <v>568</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>536</v>
+        <v>569</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>537</v>
+        <v>570</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>538</v>
+        <v>571</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>539</v>
+        <v>572</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>540</v>
+        <v>573</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -6228,28 +6300,28 @@
         <v>256</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>541</v>
+        <v>574</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>542</v>
+        <v>421</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>543</v>
+        <v>575</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>544</v>
+        <v>576</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>545</v>
+        <v>429</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>546</v>
+        <v>577</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>547</v>
+        <v>578</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>548</v>
+        <v>579</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -6258,31 +6330,31 @@
         <v>36</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>549</v>
+        <v>580</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>550</v>
+        <v>581</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>551</v>
+        <v>582</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>552</v>
+        <v>583</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>553</v>
+        <v>584</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>554</v>
+        <v>585</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>64</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>555</v>
+        <v>586</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>556</v>
+        <v>587</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -6311,7 +6383,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFCF08EA-8E13-4E11-BD9B-CA08E347C77A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D90E5D2-E054-4431-936E-108A5164A632}">
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6328,7 +6400,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>557</v>
+        <v>588</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6399,31 +6471,31 @@
         <v>8</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>558</v>
+        <v>589</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>559</v>
+        <v>590</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>560</v>
+        <v>591</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>561</v>
+        <v>592</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>562</v>
+        <v>593</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>563</v>
+        <v>594</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>564</v>
+        <v>595</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>565</v>
+        <v>596</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>566</v>
+        <v>597</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -6438,25 +6510,25 @@
         <v>20</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>458</v>
+        <v>491</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>567</v>
+        <v>598</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>138</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>568</v>
+        <v>599</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>569</v>
+        <v>600</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>291</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>378</v>
+        <v>601</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -6471,22 +6543,22 @@
         <v>20</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>458</v>
+        <v>491</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>570</v>
+        <v>602</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>571</v>
+        <v>603</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>572</v>
+        <v>604</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>197</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>573</v>
+        <v>605</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>182</v>
@@ -6498,31 +6570,31 @@
         <v>36</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>574</v>
+        <v>606</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>575</v>
+        <v>607</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>577</v>
+        <v>609</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>579</v>
+        <v>611</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>580</v>
+        <v>612</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>581</v>
+        <v>613</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>582</v>
+        <v>614</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -6533,31 +6605,31 @@
         <v>8</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>583</v>
+        <v>615</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>584</v>
+        <v>616</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>585</v>
+        <v>617</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>586</v>
+        <v>618</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>587</v>
+        <v>619</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>212</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>588</v>
+        <v>620</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>589</v>
+        <v>621</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>590</v>
+        <v>622</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -6575,22 +6647,22 @@
         <v>210</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>591</v>
+        <v>623</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>592</v>
+        <v>624</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>593</v>
+        <v>625</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>594</v>
+        <v>626</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>595</v>
+        <v>627</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>596</v>
+        <v>628</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -6599,31 +6671,31 @@
         <v>28</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>597</v>
+        <v>629</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>598</v>
+        <v>630</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>599</v>
+        <v>631</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>600</v>
+        <v>632</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>601</v>
+        <v>633</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>602</v>
+        <v>634</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>422</v>
+        <v>455</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>603</v>
+        <v>635</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>604</v>
+        <v>636</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -6632,31 +6704,31 @@
         <v>36</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>605</v>
+        <v>637</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>606</v>
+        <v>638</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>607</v>
+        <v>639</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>608</v>
+        <v>640</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>609</v>
+        <v>641</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>610</v>
+        <v>642</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>611</v>
+        <v>643</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>612</v>
+        <v>644</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>613</v>
+        <v>645</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -6667,31 +6739,31 @@
         <v>8</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>614</v>
+        <v>646</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>615</v>
+        <v>647</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>616</v>
+        <v>648</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>617</v>
+        <v>649</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>618</v>
+        <v>650</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>619</v>
+        <v>651</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>620</v>
+        <v>652</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>621</v>
+        <v>653</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>622</v>
+        <v>654</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -6700,31 +6772,31 @@
         <v>18</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>624</v>
+        <v>656</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>413</v>
+        <v>445</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>625</v>
+        <v>657</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>626</v>
+        <v>658</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>627</v>
+        <v>659</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>628</v>
+        <v>660</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>629</v>
+        <v>661</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -6733,31 +6805,31 @@
         <v>28</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>630</v>
+        <v>662</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>631</v>
+        <v>663</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>632</v>
+        <v>664</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>633</v>
+        <v>665</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>634</v>
+        <v>666</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>627</v>
+        <v>659</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>635</v>
+        <v>667</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>636</v>
+        <v>668</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>637</v>
+        <v>669</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -6766,7 +6838,7 @@
         <v>36</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>638</v>
+        <v>670</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>19</v>
@@ -6775,22 +6847,22 @@
         <v>193</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>639</v>
+        <v>671</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>640</v>
+        <v>672</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>641</v>
+        <v>673</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>642</v>
+        <v>674</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>643</v>
+        <v>675</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>644</v>
+        <v>676</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -6801,31 +6873,31 @@
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>645</v>
+        <v>677</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>646</v>
+        <v>678</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>647</v>
+        <v>679</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>648</v>
+        <v>680</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>649</v>
+        <v>681</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>650</v>
+        <v>682</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>651</v>
+        <v>683</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>652</v>
+        <v>684</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>653</v>
+        <v>685</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -6840,25 +6912,25 @@
         <v>20</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>654</v>
+        <v>686</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>655</v>
+        <v>687</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>656</v>
+        <v>688</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>657</v>
+        <v>689</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>658</v>
+        <v>690</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>659</v>
+        <v>691</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>660</v>
+        <v>692</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -6867,31 +6939,31 @@
         <v>28</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>604</v>
+        <v>636</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>661</v>
+        <v>693</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>662</v>
+        <v>694</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>663</v>
+        <v>695</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>664</v>
+        <v>696</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>665</v>
+        <v>697</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>666</v>
+        <v>698</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>101</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>667</v>
+        <v>699</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -6900,31 +6972,31 @@
         <v>36</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>668</v>
+        <v>700</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>669</v>
+        <v>701</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>670</v>
+        <v>702</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>671</v>
+        <v>703</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>672</v>
+        <v>704</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>673</v>
+        <v>705</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>674</v>
+        <v>706</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>675</v>
+        <v>707</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>676</v>
+        <v>708</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -6935,31 +7007,31 @@
         <v>8</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>677</v>
+        <v>709</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>678</v>
+        <v>710</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>679</v>
+        <v>711</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>680</v>
+        <v>712</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>681</v>
+        <v>713</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>682</v>
+        <v>714</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>683</v>
+        <v>715</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>684</v>
+        <v>716</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>685</v>
+        <v>717</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -6974,25 +7046,25 @@
         <v>20</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>686</v>
+        <v>306</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>687</v>
+        <v>718</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>138</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>688</v>
+        <v>719</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>689</v>
+        <v>720</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>690</v>
+        <v>721</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>691</v>
+        <v>722</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -7001,31 +7073,31 @@
         <v>28</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>692</v>
+        <v>723</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>693</v>
+        <v>724</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>694</v>
+        <v>725</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>695</v>
+        <v>726</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>696</v>
+        <v>727</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>160</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>697</v>
+        <v>728</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>698</v>
+        <v>729</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -7034,31 +7106,31 @@
         <v>36</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>699</v>
+        <v>730</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>352</v>
+        <v>385</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>700</v>
+        <v>731</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>701</v>
+        <v>732</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>702</v>
+        <v>733</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>703</v>
+        <v>734</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>704</v>
+        <v>735</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>705</v>
+        <v>736</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>706</v>
+        <v>737</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -7069,31 +7141,31 @@
         <v>8</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>707</v>
+        <v>738</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>708</v>
+        <v>739</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>709</v>
+        <v>740</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>710</v>
+        <v>741</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>711</v>
+        <v>742</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>712</v>
+        <v>743</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>713</v>
+        <v>744</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>714</v>
+        <v>745</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>715</v>
+        <v>746</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -7111,22 +7183,22 @@
         <v>88</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>716</v>
+        <v>747</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>717</v>
+        <v>748</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>718</v>
+        <v>749</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>719</v>
+        <v>750</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>720</v>
+        <v>751</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>721</v>
+        <v>752</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -7135,13 +7207,13 @@
         <v>28</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>722</v>
+        <v>753</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>723</v>
+        <v>754</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>724</v>
+        <v>755</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>19</v>
@@ -7150,16 +7222,16 @@
         <v>20</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>725</v>
+        <v>756</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>726</v>
+        <v>757</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>727</v>
+        <v>758</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>728</v>
+        <v>759</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -7168,31 +7240,31 @@
         <v>36</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>729</v>
+        <v>760</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>534</v>
+        <v>567</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>254</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>730</v>
+        <v>761</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>423</v>
+        <v>456</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>687</v>
+        <v>718</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>193</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>731</v>
+        <v>762</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>732</v>
+        <v>763</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -7203,31 +7275,31 @@
         <v>8</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>733</v>
+        <v>764</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>734</v>
+        <v>765</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>735</v>
+        <v>766</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>736</v>
+        <v>767</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>737</v>
+        <v>768</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>738</v>
+        <v>769</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>739</v>
+        <v>770</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>740</v>
+        <v>771</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>741</v>
+        <v>772</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -7242,25 +7314,25 @@
         <v>20</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>471</v>
+        <v>503</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>527</v>
+        <v>560</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>742</v>
+        <v>773</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>743</v>
+        <v>774</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>744</v>
+        <v>775</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>745</v>
+        <v>776</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>540</v>
+        <v>573</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -7269,31 +7341,31 @@
         <v>28</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>746</v>
+        <v>777</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>747</v>
+        <v>778</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>748</v>
+        <v>779</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>422</v>
+        <v>455</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>220</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>749</v>
+        <v>780</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>750</v>
+        <v>781</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>751</v>
+        <v>782</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>752</v>
+        <v>783</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -7302,31 +7374,31 @@
         <v>36</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>753</v>
+        <v>784</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>754</v>
+        <v>785</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>732</v>
+        <v>763</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>755</v>
+        <v>786</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>756</v>
+        <v>787</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>757</v>
+        <v>788</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>758</v>
+        <v>789</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>759</v>
+        <v>790</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>760</v>
+        <v>791</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -7337,31 +7409,31 @@
         <v>8</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>761</v>
+        <v>792</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>762</v>
+        <v>793</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>763</v>
+        <v>794</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>764</v>
+        <v>795</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>765</v>
+        <v>796</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>766</v>
+        <v>797</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>767</v>
+        <v>798</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>768</v>
+        <v>799</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>769</v>
+        <v>800</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -7379,22 +7451,22 @@
         <v>42</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>770</v>
+        <v>801</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>771</v>
+        <v>802</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>772</v>
+        <v>803</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>773</v>
+        <v>804</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>774</v>
+        <v>805</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -7403,31 +7475,31 @@
         <v>28</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>775</v>
+        <v>806</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>776</v>
+        <v>807</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>777</v>
+        <v>808</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>131</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>778</v>
+        <v>809</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>779</v>
+        <v>810</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>546</v>
+        <v>577</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>780</v>
+        <v>811</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -7436,31 +7508,31 @@
         <v>36</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>415</v>
+        <v>447</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>781</v>
+        <v>812</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>448</v>
+        <v>481</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>782</v>
+        <v>813</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>457</v>
+        <v>490</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>783</v>
+        <v>814</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>784</v>
+        <v>815</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>785</v>
+        <v>816</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>786</v>
+        <v>817</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -7471,31 +7543,31 @@
         <v>8</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>431</v>
+        <v>464</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>787</v>
+        <v>818</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>788</v>
+        <v>819</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>789</v>
+        <v>820</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>790</v>
+        <v>821</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>504</v>
+        <v>537</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>791</v>
+        <v>822</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>792</v>
+        <v>823</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>793</v>
+        <v>824</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -7504,31 +7576,31 @@
         <v>18</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>794</v>
+        <v>825</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>795</v>
+        <v>826</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>796</v>
+        <v>827</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>797</v>
+        <v>828</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>798</v>
+        <v>829</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>799</v>
+        <v>830</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>599</v>
+        <v>631</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>800</v>
+        <v>831</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -7537,31 +7609,31 @@
         <v>28</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>758</v>
+        <v>789</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>801</v>
+        <v>832</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>802</v>
+        <v>833</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>803</v>
+        <v>834</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>193</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>804</v>
+        <v>835</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>805</v>
+        <v>836</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>806</v>
+        <v>837</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>807</v>
+        <v>838</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -7570,31 +7642,31 @@
         <v>36</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>808</v>
+        <v>839</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>809</v>
+        <v>840</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>810</v>
+        <v>841</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>29</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>811</v>
+        <v>842</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>812</v>
+        <v>843</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>813</v>
+        <v>844</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>814</v>
+        <v>845</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -7623,7 +7695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4533BD06-6A9B-46E7-A6C3-444B18D8142D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783EE967-2440-4A4D-94A2-7E45206750D5}">
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7640,7 +7712,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>815</v>
+        <v>846</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7711,31 +7783,31 @@
         <v>8</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>816</v>
+        <v>847</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>817</v>
+        <v>338</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>818</v>
+        <v>557</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>321</v>
+        <v>775</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>819</v>
+        <v>848</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>820</v>
+        <v>849</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>821</v>
+        <v>850</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>822</v>
+        <v>851</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>823</v>
+        <v>852</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -7744,31 +7816,31 @@
         <v>18</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>162</v>
+        <v>729</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>824</v>
+        <v>756</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>825</v>
+        <v>853</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>826</v>
+        <v>854</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>827</v>
+        <v>855</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>828</v>
+        <v>856</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>829</v>
+        <v>671</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>830</v>
+        <v>857</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>831</v>
+        <v>858</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -7786,22 +7858,22 @@
         <v>32</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>832</v>
+        <v>859</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>50</v>
+        <v>860</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>833</v>
+        <v>861</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>123</v>
+        <v>862</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>834</v>
+        <v>863</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>835</v>
+        <v>864</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -7810,31 +7882,31 @@
         <v>36</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>836</v>
+        <v>865</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>837</v>
+        <v>584</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>838</v>
+        <v>866</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>839</v>
+        <v>867</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>840</v>
+        <v>868</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>841</v>
+        <v>869</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>842</v>
+        <v>870</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>313</v>
+        <v>871</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>843</v>
+        <v>872</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -7845,31 +7917,31 @@
         <v>8</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>844</v>
+        <v>873</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>845</v>
+        <v>874</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>846</v>
+        <v>875</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>847</v>
+        <v>876</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>848</v>
+        <v>877</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>849</v>
+        <v>878</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>850</v>
+        <v>879</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>851</v>
+        <v>880</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>852</v>
+        <v>881</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -7878,31 +7950,31 @@
         <v>18</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>853</v>
+        <v>775</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>786</v>
+        <v>882</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>854</v>
+        <v>883</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>133</v>
+        <v>884</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>855</v>
+        <v>885</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>856</v>
+        <v>886</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>858</v>
+        <v>888</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>859</v>
+        <v>889</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -7917,25 +7989,25 @@
         <v>20</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>352</v>
+        <v>385</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>860</v>
+        <v>890</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>861</v>
+        <v>891</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>862</v>
+        <v>892</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>863</v>
+        <v>468</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>864</v>
+        <v>49</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>865</v>
+        <v>893</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -7944,31 +8016,31 @@
         <v>36</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>866</v>
+        <v>894</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>867</v>
+        <v>895</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>865</v>
+        <v>896</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>868</v>
+        <v>897</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>513</v>
+        <v>346</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>869</v>
+        <v>898</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>870</v>
+        <v>899</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>665</v>
+        <v>900</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>871</v>
+        <v>901</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -7979,31 +8051,31 @@
         <v>8</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>872</v>
+        <v>902</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>873</v>
+        <v>903</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>874</v>
+        <v>904</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>875</v>
+        <v>905</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>876</v>
+        <v>906</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>877</v>
+        <v>907</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>878</v>
+        <v>908</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>879</v>
+        <v>909</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>880</v>
+        <v>910</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -8012,31 +8084,31 @@
         <v>18</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>881</v>
+        <v>911</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>882</v>
+        <v>315</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>883</v>
+        <v>912</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>884</v>
+        <v>913</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>885</v>
+        <v>914</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>886</v>
+        <v>915</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>887</v>
+        <v>916</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>888</v>
+        <v>917</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>889</v>
+        <v>918</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -8045,31 +8117,31 @@
         <v>28</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>288</v>
+        <v>919</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>890</v>
+        <v>920</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>891</v>
+        <v>921</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>892</v>
+        <v>235</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>893</v>
+        <v>922</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>894</v>
+        <v>923</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>895</v>
+        <v>924</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>896</v>
+        <v>925</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -8078,31 +8150,31 @@
         <v>36</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>897</v>
+        <v>926</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>898</v>
+        <v>927</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>899</v>
+        <v>727</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>484</v>
+        <v>425</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>900</v>
+        <v>462</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>901</v>
+        <v>928</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>902</v>
+        <v>929</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>65</v>
+        <v>390</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>903</v>
+        <v>930</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -8113,31 +8185,31 @@
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>904</v>
+        <v>931</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>905</v>
+        <v>932</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>906</v>
+        <v>933</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>907</v>
+        <v>934</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>908</v>
+        <v>935</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>909</v>
+        <v>936</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>910</v>
+        <v>937</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>911</v>
+        <v>938</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>912</v>
+        <v>939</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -8146,31 +8218,31 @@
         <v>18</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>913</v>
+        <v>940</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>914</v>
+        <v>941</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>915</v>
+        <v>942</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>916</v>
+        <v>943</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>917</v>
+        <v>944</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>197</v>
+        <v>945</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>827</v>
+        <v>946</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>918</v>
+        <v>947</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -8188,22 +8260,22 @@
         <v>76</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>919</v>
+        <v>948</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>920</v>
+        <v>949</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>921</v>
+        <v>950</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>922</v>
+        <v>951</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>923</v>
+        <v>952</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>924</v>
+        <v>877</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -8212,31 +8284,31 @@
         <v>36</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>925</v>
+        <v>953</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>926</v>
+        <v>954</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>927</v>
+        <v>955</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>928</v>
+        <v>956</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>136</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>929</v>
+        <v>957</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>451</v>
+        <v>958</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>930</v>
+        <v>839</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>931</v>
+        <v>959</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -8247,31 +8319,31 @@
         <v>8</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>932</v>
+        <v>960</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>933</v>
+        <v>961</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>934</v>
+        <v>962</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>205</v>
+        <v>963</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>935</v>
+        <v>964</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>936</v>
+        <v>965</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>937</v>
+        <v>966</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>938</v>
+        <v>967</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>939</v>
+        <v>968</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -8280,31 +8352,31 @@
         <v>18</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>940</v>
+        <v>969</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>941</v>
+        <v>970</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>942</v>
+        <v>971</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>673</v>
+        <v>138</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>914</v>
+        <v>972</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>943</v>
+        <v>973</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>944</v>
+        <v>958</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>946</v>
+        <v>974</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -8322,22 +8394,22 @@
         <v>102</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>710</v>
+        <v>975</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>947</v>
+        <v>976</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>948</v>
+        <v>977</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>949</v>
+        <v>978</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>950</v>
+        <v>35</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>951</v>
+        <v>979</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -8346,31 +8418,31 @@
         <v>36</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>952</v>
+        <v>980</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>953</v>
+        <v>981</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>120</v>
+        <v>982</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>954</v>
+        <v>983</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>864</v>
+        <v>984</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>955</v>
+        <v>985</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>956</v>
+        <v>986</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>350</v>
+        <v>987</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>957</v>
+        <v>988</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -8381,31 +8453,31 @@
         <v>8</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>958</v>
+        <v>989</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>959</v>
+        <v>743</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>960</v>
+        <v>990</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>961</v>
+        <v>991</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>962</v>
+        <v>992</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>963</v>
+        <v>993</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>964</v>
+        <v>994</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>965</v>
+        <v>995</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>966</v>
+        <v>996</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -8414,31 +8486,31 @@
         <v>18</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>967</v>
+        <v>997</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>968</v>
+        <v>998</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>971</v>
+        <v>1001</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>158</v>
+        <v>1002</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>972</v>
+        <v>1003</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>886</v>
+        <v>1004</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>865</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -8447,31 +8519,31 @@
         <v>28</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>973</v>
+        <v>1006</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>974</v>
+        <v>1007</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>134</v>
+        <v>1008</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>975</v>
+        <v>1009</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>438</v>
+        <v>1010</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>976</v>
+        <v>1011</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>977</v>
+        <v>325</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>978</v>
+        <v>1012</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>979</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -8480,31 +8552,31 @@
         <v>36</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>379</v>
+        <v>1014</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>980</v>
+        <v>481</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>981</v>
+        <v>1015</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>982</v>
+        <v>1016</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>983</v>
+        <v>423</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>605</v>
+        <v>542</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>984</v>
+        <v>1017</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>985</v>
+        <v>1018</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>667</v>
+        <v>585</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -8515,31 +8587,31 @@
         <v>8</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>986</v>
+        <v>1019</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>987</v>
+        <v>1020</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>988</v>
+        <v>1021</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>989</v>
+        <v>1022</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>823</v>
+        <v>1023</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>560</v>
+        <v>1024</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>990</v>
+        <v>1025</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>991</v>
+        <v>1026</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>992</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -8548,31 +8620,31 @@
         <v>18</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>993</v>
+        <v>1028</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>994</v>
+        <v>1029</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>995</v>
+        <v>1030</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>996</v>
+        <v>1031</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>997</v>
+        <v>42</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>998</v>
+        <v>587</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>999</v>
+        <v>1032</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>1000</v>
+        <v>1033</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>692</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -8581,31 +8653,31 @@
         <v>28</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>1001</v>
+        <v>1035</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>1002</v>
+        <v>1036</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>855</v>
+        <v>1037</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>1003</v>
+        <v>1038</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>1004</v>
+        <v>1039</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>1005</v>
+        <v>1040</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>1006</v>
+        <v>834</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>1007</v>
+        <v>1041</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>602</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -8614,31 +8686,31 @@
         <v>36</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>1008</v>
+        <v>328</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>1009</v>
+        <v>1043</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>1010</v>
+        <v>1044</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>1011</v>
+        <v>724</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>686</v>
+        <v>259</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>1012</v>
+        <v>1045</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>1013</v>
+        <v>1046</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>1014</v>
+        <v>1047</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>1015</v>
+        <v>619</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -8649,31 +8721,31 @@
         <v>8</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>1016</v>
+        <v>1048</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>1017</v>
+        <v>1049</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>995</v>
+        <v>718</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>1018</v>
+        <v>1050</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>1019</v>
+        <v>1051</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>1020</v>
+        <v>572</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>1021</v>
+        <v>664</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>1022</v>
+        <v>1052</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>445</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -8682,31 +8754,31 @@
         <v>18</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>510</v>
+        <v>1054</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>1023</v>
+        <v>1055</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>1024</v>
+        <v>1056</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>1025</v>
+        <v>1057</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>1026</v>
+        <v>317</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>1027</v>
+        <v>1058</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>1028</v>
+        <v>550</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>1029</v>
+        <v>170</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>1030</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -8715,31 +8787,31 @@
         <v>28</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>1031</v>
+        <v>1060</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>1032</v>
+        <v>1061</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>1033</v>
+        <v>486</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>1034</v>
+        <v>1062</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>1035</v>
+        <v>1063</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>1036</v>
+        <v>1064</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>1037</v>
+        <v>1065</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>1038</v>
+        <v>1066</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>1039</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -8748,31 +8820,31 @@
         <v>36</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>1040</v>
+        <v>1068</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>1041</v>
+        <v>1069</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>1042</v>
+        <v>1070</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>1043</v>
+        <v>1071</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>1044</v>
+        <v>1072</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>1045</v>
+        <v>1073</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>1046</v>
+        <v>1074</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>1047</v>
+        <v>1075</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>1048</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -8783,31 +8855,31 @@
         <v>8</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>1049</v>
+        <v>1077</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>1050</v>
+        <v>1078</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>1051</v>
+        <v>1079</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>1052</v>
+        <v>1080</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>1053</v>
+        <v>1081</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>1054</v>
+        <v>1082</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>1055</v>
+        <v>1083</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>1056</v>
+        <v>1084</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>1057</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -8816,31 +8888,31 @@
         <v>18</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>313</v>
+        <v>1085</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>1058</v>
+        <v>1086</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>424</v>
+        <v>1087</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>806</v>
+        <v>1088</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>725</v>
+        <v>1089</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>1059</v>
+        <v>1090</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>1060</v>
+        <v>224</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>689</v>
+        <v>320</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>1061</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -8849,31 +8921,31 @@
         <v>28</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>1062</v>
+        <v>488</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>1063</v>
+        <v>1091</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>1064</v>
+        <v>758</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>1065</v>
+        <v>1092</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>1066</v>
+        <v>1093</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>1067</v>
+        <v>1094</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>1068</v>
+        <v>59</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>1069</v>
+        <v>1095</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>1070</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -8882,31 +8954,31 @@
         <v>36</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>1071</v>
+        <v>967</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>1072</v>
+        <v>1097</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>1073</v>
+        <v>1098</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>1074</v>
+        <v>1099</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>1075</v>
+        <v>490</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>1076</v>
+        <v>1100</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>871</v>
+        <v>1101</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>1077</v>
+        <v>1102</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>1078</v>
+        <v>434</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
